--- a/results/2008_reps_by_priority(6).xlsx
+++ b/results/2008_reps_by_priority(6).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F84EC8-DDE8-7344-8789-6FFBD08D27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496EAF4-BE7C-6D4F-AA32-B46630636BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1000" windowWidth="26900" windowHeight="16440" xr2:uid="{307E2EF2-C6BC-974A-ADC4-8AF77E94948F}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +628,10 @@
   <dimension ref="A1:Q172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +733,7 @@
         <v>-16</v>
       </c>
       <c r="M2" t="str">
-        <f>IF(AND(G2&lt;I2,H2&lt;I2),IF(K2&gt;0,"DEM","REP"),IF(H2&lt;G2,"REP", "DEM"))</f>
+        <f>IF(AND(G2&lt;I2,H2&lt;I2),IF(Q1&gt;0,"DEM","REP"),IF(H2&lt;G2,"REP", "DEM"))</f>
         <v>REP</v>
       </c>
       <c r="N2" t="str">
@@ -782,11 +776,11 @@
         <v>-15</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">IF(AND(G3&lt;I3,H3&lt;I3),IF(K3&gt;0,"DEM","REP"),IF(H3&lt;G3,"REP", "DEM"))</f>
+        <f>IF(AND(G3&lt;I3,H3&lt;I3),IF(K2&gt;0,"DEM","REP"),IF(H3&lt;G3,"REP", "DEM"))</f>
         <v>REP</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="1">IF(M3=J3, "GOOD", "BAD")</f>
+        <f t="shared" ref="N3:N66" si="0">IF(M3=J3, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
     </row>
@@ -825,11 +819,11 @@
         <v>-16</v>
       </c>
       <c r="M4" t="str">
+        <f t="shared" ref="M4:M67" si="1">IF(AND(G4&lt;I4,H4&lt;I4),IF(K3&gt;0,"DEM","REP"),IF(H4&lt;G4,"REP", "DEM"))</f>
+        <v>DEM</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -868,11 +862,11 @@
         <v>-15</v>
       </c>
       <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -911,11 +905,11 @@
         <v>-15</v>
       </c>
       <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -954,11 +948,11 @@
         <v>-14</v>
       </c>
       <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -997,11 +991,11 @@
         <v>-15</v>
       </c>
       <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1040,11 +1034,11 @@
         <v>-14</v>
       </c>
       <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1083,11 +1077,11 @@
         <v>-14</v>
       </c>
       <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1126,11 +1120,11 @@
         <v>-13</v>
       </c>
       <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1169,11 +1163,11 @@
         <v>-12</v>
       </c>
       <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1212,11 +1206,11 @@
         <v>-12</v>
       </c>
       <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1255,11 +1249,11 @@
         <v>-11</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1298,11 +1292,11 @@
         <v>-11</v>
       </c>
       <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1341,11 +1335,11 @@
         <v>-10</v>
       </c>
       <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1384,11 +1378,11 @@
         <v>-11</v>
       </c>
       <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1427,11 +1421,11 @@
         <v>-10</v>
       </c>
       <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1470,11 +1464,11 @@
         <v>-11</v>
       </c>
       <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1513,11 +1507,11 @@
         <v>-10</v>
       </c>
       <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1556,11 +1550,11 @@
         <v>-9</v>
       </c>
       <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1599,11 +1593,11 @@
         <v>-10</v>
       </c>
       <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1642,11 +1636,11 @@
         <v>-9</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1685,11 +1679,11 @@
         <v>-10</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1728,11 +1722,11 @@
         <v>-9</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1771,11 +1765,11 @@
         <v>-9</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1814,11 +1808,11 @@
         <v>-9</v>
       </c>
       <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1857,11 +1851,11 @@
         <v>-9</v>
       </c>
       <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1900,11 +1894,11 @@
         <v>-8</v>
       </c>
       <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1943,11 +1937,11 @@
         <v>-7</v>
       </c>
       <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -1986,11 +1980,11 @@
         <v>-8</v>
       </c>
       <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2029,11 +2023,11 @@
         <v>-7</v>
       </c>
       <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2072,11 +2066,11 @@
         <v>-8</v>
       </c>
       <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2115,11 +2109,11 @@
         <v>-7</v>
       </c>
       <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2158,11 +2152,11 @@
         <v>-7</v>
       </c>
       <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2201,11 +2195,11 @@
         <v>-6</v>
       </c>
       <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2244,11 +2238,11 @@
         <v>-6</v>
       </c>
       <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2287,11 +2281,11 @@
         <v>-5</v>
       </c>
       <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N38" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2330,11 +2324,11 @@
         <v>-4</v>
       </c>
       <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2373,11 +2367,11 @@
         <v>-4</v>
       </c>
       <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N40" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2416,11 +2410,11 @@
         <v>-4</v>
       </c>
       <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2459,11 +2453,11 @@
         <v>-4</v>
       </c>
       <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2502,11 +2496,11 @@
         <v>-4</v>
       </c>
       <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2545,11 +2539,11 @@
         <v>-4</v>
       </c>
       <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N44" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2588,11 +2582,11 @@
         <v>-4</v>
       </c>
       <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2631,11 +2625,11 @@
         <v>-4</v>
       </c>
       <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2674,11 +2668,11 @@
         <v>-3</v>
       </c>
       <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2717,11 +2711,11 @@
         <v>-2</v>
       </c>
       <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2760,11 +2754,11 @@
         <v>-2</v>
       </c>
       <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2803,11 +2797,11 @@
         <v>-1</v>
       </c>
       <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2846,11 +2840,11 @@
         <v>-2</v>
       </c>
       <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2889,11 +2883,11 @@
         <v>-2</v>
       </c>
       <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N52" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2932,11 +2926,11 @@
         <v>-2</v>
       </c>
       <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N53" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -2975,11 +2969,11 @@
         <v>-2</v>
       </c>
       <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N54" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3018,11 +3012,11 @@
         <v>-2</v>
       </c>
       <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N55" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3061,11 +3055,11 @@
         <v>-1</v>
       </c>
       <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N56" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3104,11 +3098,11 @@
         <v>-1</v>
       </c>
       <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N57" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3147,11 +3141,11 @@
         <v>0</v>
       </c>
       <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N58" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3190,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N59" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3233,11 +3227,11 @@
         <v>-1</v>
       </c>
       <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N60" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3276,11 +3270,11 @@
         <v>0</v>
       </c>
       <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N61" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3319,11 +3313,11 @@
         <v>0</v>
       </c>
       <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N62" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3362,12 +3356,12 @@
         <v>1</v>
       </c>
       <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N63" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3405,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N64" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3448,11 +3442,11 @@
         <v>0</v>
       </c>
       <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM</v>
+      </c>
+      <c r="N65" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3491,11 +3485,11 @@
         <v>0</v>
       </c>
       <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v>REP</v>
+      </c>
+      <c r="N66" t="str">
         <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-      <c r="N66" t="str">
-        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3534,11 +3528,11 @@
         <v>0</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="2">IF(AND(G67&lt;I67,H67&lt;I67),IF(K67&gt;0,"DEM","REP"),IF(H67&lt;G67,"REP", "DEM"))</f>
+        <f t="shared" si="1"/>
         <v>DEM</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N130" si="3">IF(M67=J67, "GOOD", "BAD")</f>
+        <f t="shared" ref="N67:N130" si="2">IF(M67=J67, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
     </row>
@@ -3577,11 +3571,11 @@
         <v>0</v>
       </c>
       <c r="M68" t="str">
+        <f t="shared" ref="M68:M131" si="3">IF(AND(G68&lt;I68,H68&lt;I68),IF(K67&gt;0,"DEM","REP"),IF(H68&lt;G68,"REP", "DEM"))</f>
+        <v>DEM</v>
+      </c>
+      <c r="N68" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3620,11 +3614,11 @@
         <v>-1</v>
       </c>
       <c r="M69" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N69" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3663,11 +3657,11 @@
         <v>0</v>
       </c>
       <c r="M70" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N70" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3706,11 +3700,11 @@
         <v>0</v>
       </c>
       <c r="M71" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N71" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3749,12 +3743,12 @@
         <v>1</v>
       </c>
       <c r="M72" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N72" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3792,12 +3786,12 @@
         <v>0</v>
       </c>
       <c r="M73" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N73" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3835,11 +3829,11 @@
         <v>0</v>
       </c>
       <c r="M74" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N74" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3878,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="M75" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N75" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3921,11 +3915,11 @@
         <v>0</v>
       </c>
       <c r="M76" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N76" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -3964,12 +3958,12 @@
         <v>1</v>
       </c>
       <c r="M77" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N77" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4007,11 +4001,11 @@
         <v>0</v>
       </c>
       <c r="M78" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4050,12 +4044,12 @@
         <v>1</v>
       </c>
       <c r="M79" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N79" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4093,11 +4087,11 @@
         <v>0</v>
       </c>
       <c r="M80" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N80" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4136,12 +4130,12 @@
         <v>1</v>
       </c>
       <c r="M81" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N81" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4179,11 +4173,11 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N82" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4222,12 +4216,12 @@
         <v>1</v>
       </c>
       <c r="M83" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N83" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4265,12 +4259,12 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N84" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4308,12 +4302,12 @@
         <v>1</v>
       </c>
       <c r="M85" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N85" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4351,11 +4345,11 @@
         <v>1</v>
       </c>
       <c r="M86" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N86" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4394,11 +4388,11 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N87" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4437,12 +4431,12 @@
         <v>1</v>
       </c>
       <c r="M88" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N88" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4480,12 +4474,12 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N89" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4523,11 +4517,11 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N90" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4566,11 +4560,11 @@
         <v>-1</v>
       </c>
       <c r="M91" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N91" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4609,11 +4603,11 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N92" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4652,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N93" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N93" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4695,12 +4689,12 @@
         <v>1</v>
       </c>
       <c r="M94" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N94" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N94" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4738,12 +4732,12 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N95" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N95" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4781,12 +4775,12 @@
         <v>1</v>
       </c>
       <c r="M96" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N96" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N96" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4824,11 +4818,11 @@
         <v>1</v>
       </c>
       <c r="M97" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N97" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4867,12 +4861,12 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N98" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -4910,12 +4904,12 @@
         <v>1</v>
       </c>
       <c r="M99" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N99" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N99" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -4953,11 +4947,11 @@
         <v>0</v>
       </c>
       <c r="M100" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N100" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N100" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -4996,12 +4990,12 @@
         <v>1</v>
       </c>
       <c r="M101" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N101" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5039,12 +5033,12 @@
         <v>0</v>
       </c>
       <c r="M102" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N102" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5082,12 +5076,12 @@
         <v>1</v>
       </c>
       <c r="M103" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N103" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N103" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5125,12 +5119,12 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N104" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5168,11 +5162,11 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N105" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N105" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5211,12 +5205,12 @@
         <v>1</v>
       </c>
       <c r="M106" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N106" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N106" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5254,11 +5248,11 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N107" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N107" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5297,12 +5291,12 @@
         <v>1</v>
       </c>
       <c r="M108" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N108" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N108" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5340,12 +5334,12 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N109" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N109" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5383,12 +5377,12 @@
         <v>1</v>
       </c>
       <c r="M110" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N110" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N110" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5426,12 +5420,12 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N111" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N111" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5469,12 +5463,12 @@
         <v>1</v>
       </c>
       <c r="M112" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N112" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N112" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5512,12 +5506,12 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N113" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N113" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5555,12 +5549,12 @@
         <v>1</v>
       </c>
       <c r="M114" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N114" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N114" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5598,11 +5592,11 @@
         <v>1</v>
       </c>
       <c r="M115" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N115" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N115" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5641,11 +5635,11 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N116" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N116" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5684,12 +5678,12 @@
         <v>1</v>
       </c>
       <c r="M117" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N117" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N117" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5727,12 +5721,12 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N118" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N118" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5770,11 +5764,11 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N119" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N119" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5813,11 +5807,11 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N120" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N120" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -5856,12 +5850,12 @@
         <v>1</v>
       </c>
       <c r="M121" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N121" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N121" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -5899,12 +5893,12 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N122" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N122" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -5942,12 +5936,12 @@
         <v>1</v>
       </c>
       <c r="M123" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N123" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N123" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -5985,11 +5979,11 @@
         <v>1</v>
       </c>
       <c r="M124" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N124" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N124" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6028,11 +6022,11 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N125" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N125" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6071,11 +6065,11 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N126" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N126" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6114,11 +6108,11 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N127" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N127" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6157,12 +6151,12 @@
         <v>1</v>
       </c>
       <c r="M128" t="str">
+        <f t="shared" si="3"/>
+        <v>REP</v>
+      </c>
+      <c r="N128" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N128" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -6200,12 +6194,12 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N129" t="str">
         <f t="shared" si="2"/>
-        <v>REP</v>
-      </c>
-      <c r="N129" t="str">
-        <f t="shared" si="3"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6243,11 +6237,11 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
+        <f t="shared" si="3"/>
+        <v>DEM</v>
+      </c>
+      <c r="N130" t="str">
         <f t="shared" si="2"/>
-        <v>DEM</v>
-      </c>
-      <c r="N130" t="str">
-        <f t="shared" si="3"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6286,11 +6280,11 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M166" si="4">IF(AND(G131&lt;I131,H131&lt;I131),IF(K131&gt;0,"DEM","REP"),IF(H131&lt;G131,"REP", "DEM"))</f>
+        <f t="shared" si="3"/>
         <v>REP</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" ref="N131:N166" si="5">IF(M131=J131, "GOOD", "BAD")</f>
+        <f t="shared" ref="N131:N166" si="4">IF(M131=J131, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
     </row>
@@ -6329,12 +6323,12 @@
         <v>1</v>
       </c>
       <c r="M132" t="str">
+        <f t="shared" ref="M132:M166" si="5">IF(AND(G132&lt;I132,H132&lt;I132),IF(K131&gt;0,"DEM","REP"),IF(H132&lt;G132,"REP", "DEM"))</f>
+        <v>REP</v>
+      </c>
+      <c r="N132" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N132" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -6372,11 +6366,11 @@
         <v>1</v>
       </c>
       <c r="M133" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N133" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N133" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6415,12 +6409,12 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N134" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N134" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -6458,12 +6452,12 @@
         <v>1</v>
       </c>
       <c r="M135" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N135" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N135" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -6501,11 +6495,11 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N136" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N136" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6544,12 +6538,12 @@
         <v>1</v>
       </c>
       <c r="M137" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N137" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N137" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -6587,11 +6581,11 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N138" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N138" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6630,11 +6624,11 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N139" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N139" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6673,11 +6667,11 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N140" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N140" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6716,12 +6710,12 @@
         <v>1</v>
       </c>
       <c r="M141" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N141" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N141" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -6759,12 +6753,12 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N142" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N142" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -6802,12 +6796,12 @@
         <v>1</v>
       </c>
       <c r="M143" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N143" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N143" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -6845,11 +6839,11 @@
         <v>1</v>
       </c>
       <c r="M144" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N144" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N144" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -6888,12 +6882,12 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N145" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N145" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -6931,12 +6925,12 @@
         <v>1</v>
       </c>
       <c r="M146" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N146" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N146" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -6974,12 +6968,12 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N147" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N147" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -7017,12 +7011,12 @@
         <v>1</v>
       </c>
       <c r="M148" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N148" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N148" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -7060,12 +7054,12 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N149" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N149" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -7103,12 +7097,12 @@
         <v>1</v>
       </c>
       <c r="M150" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N150" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N150" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -7146,12 +7140,12 @@
         <v>0</v>
       </c>
       <c r="M151" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N151" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N151" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -7189,11 +7183,11 @@
         <v>0</v>
       </c>
       <c r="M152" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N152" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N152" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7232,12 +7226,12 @@
         <v>1</v>
       </c>
       <c r="M153" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N153" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N153" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -7275,11 +7269,11 @@
         <v>0</v>
       </c>
       <c r="M154" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N154" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N154" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7318,11 +7312,11 @@
         <v>0</v>
       </c>
       <c r="M155" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N155" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N155" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7361,11 +7355,11 @@
         <v>0</v>
       </c>
       <c r="M156" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N156" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N156" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7404,12 +7398,12 @@
         <v>1</v>
       </c>
       <c r="M157" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N157" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N157" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -7447,12 +7441,12 @@
         <v>0</v>
       </c>
       <c r="M158" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N158" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N158" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -7490,11 +7484,11 @@
         <v>0</v>
       </c>
       <c r="M159" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N159" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N159" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7533,11 +7527,11 @@
         <v>0</v>
       </c>
       <c r="M160" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N160" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N160" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7576,12 +7570,12 @@
         <v>1</v>
       </c>
       <c r="M161" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N161" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N161" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -7619,11 +7613,11 @@
         <v>1</v>
       </c>
       <c r="M162" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N162" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N162" t="str">
-        <f t="shared" si="5"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7662,12 +7656,12 @@
         <v>0</v>
       </c>
       <c r="M163" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N163" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N163" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -7705,12 +7699,12 @@
         <v>1</v>
       </c>
       <c r="M164" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N164" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N164" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -7748,12 +7742,12 @@
         <v>0</v>
       </c>
       <c r="M165" t="str">
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N165" t="str">
         <f t="shared" si="4"/>
-        <v>REP</v>
-      </c>
-      <c r="N165" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -7791,12 +7785,12 @@
         <v>1</v>
       </c>
       <c r="M166" t="str">
+        <f t="shared" si="5"/>
+        <v>REP</v>
+      </c>
+      <c r="N166" t="str">
         <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N166" t="str">
-        <f t="shared" si="5"/>
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
